--- a/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L3")</t>
+          <t>jx:area(lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -56,11 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>机构资料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -117,9 +113,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>每月固定开支</t>
-  </si>
-  <si>
     <t>${obj.monthChargeAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -128,13 +121,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>上月销售额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月毛利率</t>
-  </si>
-  <si>
     <t>${obj.grossProfitRateStr}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -147,6 +133,29 @@
   </si>
   <si>
     <t>${obj.bepDay}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店月盈亏平衡分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否达标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.standard}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经营成本</t>
+  </si>
+  <si>
+    <t>销售额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率(%)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -597,14 +606,14 @@
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="5" width="26.5" style="3" customWidth="1"/>
     <col min="6" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="11" width="20.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="9" max="12" width="20.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="25.125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -617,86 +626,93 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
@@ -163,6 +163,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -288,6 +291,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -604,9 +621,13 @@
     <col min="1" max="1" width="20.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="12" width="20.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="8" width="19.75" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.75" style="13" customWidth="1"/>
     <col min="13" max="13" width="25.125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
@@ -641,28 +662,28 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -682,28 +703,28 @@
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -719,7 +740,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="M3")</t>
+          <t>jx:area(lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -74,18 +74,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.costAvgYear}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>所属分公司</t>
   </si>
   <si>
     <t>${obj.parentName}</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用均摊年数</t>
   </si>
   <si>
     <t>日盈亏平衡点</t>
@@ -266,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -283,14 +276,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +292,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,6 +302,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -331,7 +389,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -610,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -622,34 +680,32 @@
     <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="8" width="19.75" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="3" customWidth="1"/>
-    <col min="11" max="12" width="20.75" style="13" customWidth="1"/>
-    <col min="13" max="13" width="25.125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="26.5" style="11" customWidth="1"/>
+    <col min="6" max="7" width="19.75" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="3" customWidth="1"/>
+    <col min="10" max="11" width="20.75" style="11" customWidth="1"/>
+    <col min="12" max="12" width="25.125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -657,40 +713,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
+      <c r="J2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -698,42 +751,39 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>23</v>
+      <c r="K3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyMonthAnalysisExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L3")</t>
+          <t>jx:area(lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -91,64 +91,98 @@
     <t>月份</t>
   </si>
   <si>
-    <t>开店成本</t>
+    <t>${obj.fixedAvgAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月均开店成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.monthChargeAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.grossProfitRateStr}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月盈亏平衡点</t>
+  </si>
+  <si>
+    <t>${obj.bepMonth}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.bepDay}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店月盈亏平衡分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否达标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.standard}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.costAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月成本小计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.monthCost}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开店总成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>${obj.fixedTotalAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.fixedAvgAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月均开店成本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.monthChargeAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.grossProfitRateStr}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月盈亏平衡点</t>
-  </si>
-  <si>
-    <t>${obj.bepMonth}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.bepDay}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店月盈亏平衡分析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否达标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.standard}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>月经营成本</t>
-  </si>
-  <si>
-    <t>销售额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利率(%)</t>
+    <t>每月经营成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料领用金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.materielAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报损金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.faultyAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -156,8 +190,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -232,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,11 +290,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -282,19 +354,25 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,74 +380,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,7 +399,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -668,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -680,32 +690,37 @@
     <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="11" customWidth="1"/>
-    <col min="6" max="7" width="19.75" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="11" customWidth="1"/>
+    <col min="5" max="8" width="20.75" style="10" customWidth="1"/>
     <col min="9" max="9" width="20.75" style="3" customWidth="1"/>
-    <col min="10" max="11" width="20.75" style="11" customWidth="1"/>
-    <col min="12" max="12" width="25.125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="10" max="11" width="26.5" style="10" customWidth="1"/>
+    <col min="12" max="13" width="19.75" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="10" customWidth="1"/>
+    <col min="15" max="15" width="20.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -719,31 +734,43 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -756,34 +783,46 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
+      <c r="N3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
